--- a/data/trans_dic/BARTHEL_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R3-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2259068455137183</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1820895584396598</v>
+        <v>0.1820895584396599</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.09004199361826312</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01582181316749124</v>
+        <v>0.01597460961675512</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02571408139403946</v>
+        <v>0.02531750627486008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04829056502609391</v>
+        <v>0.05234381292443874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08398683704995717</v>
+        <v>0.08484712652414865</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03052841736432876</v>
+        <v>0.04196021178727482</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04038658899629601</v>
+        <v>0.03982229675052819</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09542316941158911</v>
+        <v>0.09753092453553233</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1110091541341031</v>
+        <v>0.1176092157727005</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04306409957824017</v>
+        <v>0.03927911119201262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04681115219002282</v>
+        <v>0.04715447907930851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08880877676133334</v>
+        <v>0.09115173949486127</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1076599381216833</v>
+        <v>0.1101209984483418</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.171002037280883</v>
+        <v>0.1628814161203489</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2747553044942213</v>
+        <v>0.2859261162890027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2305581984861537</v>
+        <v>0.2351719525525819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1872544736068036</v>
+        <v>0.1862667737577968</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3084653177566977</v>
+        <v>0.3312484775881848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3493483407789849</v>
+        <v>0.3304807448019232</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4054537590211604</v>
+        <v>0.3963082541726661</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2653098139546045</v>
+        <v>0.2707741765692139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1715793342333014</v>
+        <v>0.1648788722396332</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2313272004275709</v>
+        <v>0.2257294499216222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2461260468898757</v>
+        <v>0.2464387983063728</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1916132523891239</v>
+        <v>0.1958557260397117</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03559235798747491</v>
+        <v>0.03720949957189991</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0401428295262498</v>
+        <v>0.0508493876109858</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07538419471597529</v>
+        <v>0.07907311741455438</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09259692993121788</v>
+        <v>0.09311360140112228</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05973466275274472</v>
+        <v>0.05747427314127206</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1115970346127595</v>
+        <v>0.1077397716680916</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2194777004843847</v>
+        <v>0.2027304274795835</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1987760950729144</v>
+        <v>0.1921936245816921</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06050898668915589</v>
+        <v>0.05751396713735588</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09027308124647275</v>
+        <v>0.09997351334667856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1414119830054279</v>
+        <v>0.1301272674956118</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1489117952034386</v>
+        <v>0.1435676766355777</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2323293941865484</v>
+        <v>0.226295425669089</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.245859481105797</v>
+        <v>0.261364342775818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2588910187056791</v>
+        <v>0.2656244997740634</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2108195896338268</v>
+        <v>0.2157811622972313</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4738483354748477</v>
+        <v>0.489719208871193</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5773470648969834</v>
+        <v>0.5878099254459012</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7418602344018408</v>
+        <v>0.7476275871081695</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3816357678709463</v>
+        <v>0.3800209228705424</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2247459624668099</v>
+        <v>0.2263576397594601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2831309556216633</v>
+        <v>0.291041676140337</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3537102444226203</v>
+        <v>0.3342287436083312</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2467224336223192</v>
+        <v>0.2477919682268151</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1586786096945126</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2840356796685152</v>
+        <v>0.2840356796685151</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06344895513292634</v>
+        <v>0.0725806069162899</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06953011493381435</v>
+        <v>0.0701248132727421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07365426345614204</v>
+        <v>0.07723101494316049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.154763717189605</v>
+        <v>0.1622293885914058</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04793427346823652</v>
+        <v>0.04781775055222755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.152013075607291</v>
+        <v>0.1554257105307437</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1216058553237132</v>
+        <v>0.1235828286179185</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3112658003554766</v>
+        <v>0.3152274513272658</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08857188838512438</v>
+        <v>0.0912790153140465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1183948335012455</v>
+        <v>0.114351730295262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1084095697380462</v>
+        <v>0.1121415114460317</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2332250393482201</v>
+        <v>0.2346325306285556</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2162394058564256</v>
+        <v>0.2202695653840268</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.20795798659345</v>
+        <v>0.215953738541457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1944698030178149</v>
+        <v>0.1843707745720106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2914628322478248</v>
+        <v>0.294407837641596</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4071777241778796</v>
+        <v>0.4030036817705081</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4010689268407845</v>
+        <v>0.4096836276184649</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4114829494963827</v>
+        <v>0.4121630941232196</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.51210473976225</v>
+        <v>0.5120887871485784</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2369339365704499</v>
+        <v>0.2263880205503585</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2374981788980619</v>
+        <v>0.2375793519744767</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2217948748723437</v>
+        <v>0.2244548170469362</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3381705641330045</v>
+        <v>0.3427171614007626</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1060081932475091</v>
+        <v>0.1032039035988756</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1885273513312549</v>
+        <v>0.187595045047998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1269017380118536</v>
+        <v>0.1254952193841752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2036353348912416</v>
+        <v>0.2018328381977153</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09006215885903929</v>
+        <v>0.08725386644102637</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2268497420511457</v>
+        <v>0.2240582397417656</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.177849166249922</v>
+        <v>0.1839631388405392</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2371713091976795</v>
+        <v>0.2420256721300035</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1103117825433402</v>
+        <v>0.1111514896272232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.212753140307012</v>
+        <v>0.217672997942469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1605493701584449</v>
+        <v>0.1566092725348703</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2247370020533275</v>
+        <v>0.227573010977935</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1837699861616642</v>
+        <v>0.1846150006022019</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3143921818952686</v>
+        <v>0.31521957719676</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.223583397564152</v>
+        <v>0.2241954698034944</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2937490912092949</v>
+        <v>0.2891787211600216</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.244281160995882</v>
+        <v>0.2532254782421063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4794681766963569</v>
+        <v>0.4771555604144395</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3765645160794293</v>
+        <v>0.3824650292961915</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3492237250936955</v>
+        <v>0.3490978675848924</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1788307958280084</v>
+        <v>0.1800945388131011</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.322016221376099</v>
+        <v>0.32397073029688</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2541725500388675</v>
+        <v>0.252450389230612</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2969842119952157</v>
+        <v>0.298954538269445</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.235160549176708</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2577294945900663</v>
+        <v>0.2577294945900664</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.276957043943138</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1096881087526332</v>
+        <v>0.1142815247205972</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.135460147022969</v>
+        <v>0.1329817819948571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1734719036909629</v>
+        <v>0.1731246232297325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1914401832830587</v>
+        <v>0.1896558935101353</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1962078125876609</v>
+        <v>0.1884513807700646</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3130632599146347</v>
+        <v>0.3144210563626268</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2220612226431243</v>
+        <v>0.2235805782745176</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4192459104107711</v>
+        <v>0.4172748680809029</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1814424252178649</v>
+        <v>0.1813853138341788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2660798768915202</v>
+        <v>0.2675030973501676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2202788482555232</v>
+        <v>0.2171845749676836</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3545859550159515</v>
+        <v>0.3620144386774848</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3154705739283337</v>
+        <v>0.3182074135482544</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2902128529335614</v>
+        <v>0.2940400456428069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3112067235614588</v>
+        <v>0.3083125566605033</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3329840191757916</v>
+        <v>0.3266561136580082</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3795671021453685</v>
+        <v>0.3818328488705817</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4602558425031987</v>
+        <v>0.4621469297152576</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3766329338109383</v>
+        <v>0.3780188770848757</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5100353453077312</v>
+        <v>0.5154880721548931</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3301286363100497</v>
+        <v>0.3255752158385323</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3786504495381575</v>
+        <v>0.3782048388544614</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3233324976997007</v>
+        <v>0.3224666105732379</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4372872863302897</v>
+        <v>0.4421723654294845</v>
       </c>
     </row>
     <row r="19">
@@ -1375,7 +1375,7 @@
         <v>0.3261312666515748</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4004805072117267</v>
+        <v>0.4004805072117268</v>
       </c>
     </row>
     <row r="20">
@@ -1389,31 +1389,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.1753445647139325</v>
+        <v>0.1892256228645394</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1680176966636142</v>
+        <v>0.1652337098686522</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2483883054170479</v>
+        <v>0.2512681160280454</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.275583157759571</v>
+        <v>0.2772767860937148</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3610771243040112</v>
+        <v>0.357285384824293</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1606353917407162</v>
+        <v>0.1656769699736954</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2503409314093376</v>
+        <v>0.246690649652019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.275583157759571</v>
+        <v>0.2772767860937148</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3593361976483596</v>
+        <v>0.3606658049602278</v>
       </c>
     </row>
     <row r="21">
@@ -1430,28 +1430,28 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2468661949997196</v>
+        <v>0.2466966049678641</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3409372714000952</v>
+        <v>0.3412116876955176</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3747753471891407</v>
+        <v>0.3805355496995039</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4401406170840696</v>
+        <v>0.4396260738946104</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2407222914589278</v>
+        <v>0.2472827001482118</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3428958350274007</v>
+        <v>0.3420990892734558</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3747753471891407</v>
+        <v>0.3805355496995039</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4358632911749302</v>
+        <v>0.4388566762498251</v>
       </c>
     </row>
     <row r="22">
@@ -1510,40 +1510,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1070048137771232</v>
+        <v>0.1082345389823212</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.184716168357937</v>
+        <v>0.184615772488068</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2774644000313794</v>
+        <v>0.2809110154894944</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2699032678939315</v>
+        <v>0.2670496084042505</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3489751182089426</v>
+        <v>0.350500108440859</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1525212847426121</v>
+        <v>0.1530864035260849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2357491683644068</v>
+        <v>0.2361360580494431</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2245819839976737</v>
+        <v>0.2254061023032352</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2820213481658679</v>
+        <v>0.2831451401731265</v>
       </c>
     </row>
     <row r="24">
@@ -1554,40 +1554,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1661879739884901</v>
+        <v>0.165432090567562</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2354869862741671</v>
+        <v>0.2364759979902573</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3505548070425353</v>
+        <v>0.3521740929741592</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3477100523049392</v>
+        <v>0.3386470161361793</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3983266890053185</v>
+        <v>0.3975913919875552</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1952809364640348</v>
+        <v>0.1968969876252804</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2852332267507171</v>
+        <v>0.287016588252391</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2735136138548167</v>
+        <v>0.2741722937028538</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3190287949159415</v>
+        <v>0.3196863849868299</v>
       </c>
     </row>
     <row r="25">
@@ -1860,40 +1860,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3315</v>
+        <v>3593</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10112</v>
+        <v>10216</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>907</v>
+        <v>1247</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3520</v>
+        <v>3598</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8277</v>
+        <v>8769</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3854</v>
+        <v>3515</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3240</v>
+        <v>3263</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9372</v>
+        <v>9620</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20989</v>
+        <v>21469</v>
       </c>
     </row>
     <row r="7">
@@ -1904,40 +1904,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10223</v>
+        <v>9738</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12067</v>
+        <v>12557</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15827</v>
+        <v>16144</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22546</v>
+        <v>22427</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9164</v>
+        <v>9841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8835</v>
+        <v>8358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14956</v>
+        <v>14619</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19781</v>
+        <v>20189</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15355</v>
+        <v>14756</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16009</v>
+        <v>15622</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25975</v>
+        <v>26008</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37357</v>
+        <v>38184</v>
       </c>
     </row>
     <row r="8">
@@ -2040,40 +2040,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1809</v>
+        <v>1891</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2434</v>
+        <v>3083</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4021</v>
+        <v>4218</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9696</v>
+        <v>9750</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2109</v>
+        <v>2036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3860</v>
+        <v>3566</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10941</v>
+        <v>10578</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4031</v>
+        <v>3831</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7180</v>
+        <v>7951</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10031</v>
+        <v>9230</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23789</v>
+        <v>22936</v>
       </c>
     </row>
     <row r="11">
@@ -2084,40 +2084,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11809</v>
+        <v>11503</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14906</v>
+        <v>15847</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13810</v>
+        <v>14169</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22076</v>
+        <v>22596</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7480</v>
+        <v>7731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10913</v>
+        <v>11111</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13048</v>
+        <v>13149</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21005</v>
+        <v>20916</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14972</v>
+        <v>15079</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>22518</v>
+        <v>23147</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>25089</v>
+        <v>23708</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>39415</v>
+        <v>39586</v>
       </c>
     </row>
     <row r="12">
@@ -2220,40 +2220,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4553</v>
+        <v>5208</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8250</v>
+        <v>8321</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8858</v>
+        <v>9288</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17406</v>
+        <v>18246</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8302</v>
+        <v>8489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5619</v>
+        <v>5711</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18044</v>
+        <v>18274</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8506</v>
+        <v>8766</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20514</v>
+        <v>19813</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18047</v>
+        <v>18668</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39751</v>
+        <v>39991</v>
       </c>
     </row>
     <row r="15">
@@ -2264,40 +2264,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15516</v>
+        <v>15805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24675</v>
+        <v>25624</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23387</v>
+        <v>22173</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32781</v>
+        <v>33112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9884</v>
+        <v>9783</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21904</v>
+        <v>22375</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19014</v>
+        <v>19046</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29687</v>
+        <v>29686</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22753</v>
+        <v>21740</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>41151</v>
+        <v>41165</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36922</v>
+        <v>37365</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>57638</v>
+        <v>58413</v>
       </c>
     </row>
     <row r="16">
@@ -2400,40 +2400,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27570</v>
+        <v>26840</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43692</v>
+        <v>43476</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25870</v>
+        <v>25583</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52507</v>
+        <v>52042</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7723</v>
+        <v>7482</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13633</v>
+        <v>13465</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17615</v>
+        <v>18221</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30895</v>
+        <v>31527</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>38148</v>
+        <v>38439</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>62092</v>
+        <v>63527</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>48631</v>
+        <v>47437</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>87223</v>
+        <v>88324</v>
       </c>
     </row>
     <row r="19">
@@ -2444,40 +2444,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47793</v>
+        <v>48013</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>72861</v>
+        <v>73053</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45579</v>
+        <v>45704</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75742</v>
+        <v>74564</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>20948</v>
+        <v>21715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28814</v>
+        <v>28675</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37297</v>
+        <v>37882</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45492</v>
+        <v>45475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>61844</v>
+        <v>62281</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>93980</v>
+        <v>94550</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>76989</v>
+        <v>76468</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>115263</v>
+        <v>116028</v>
       </c>
     </row>
     <row r="20">
@@ -2580,40 +2580,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6084</v>
+        <v>6339</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13911</v>
+        <v>13657</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25192</v>
+        <v>25141</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19296</v>
+        <v>19116</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>18885</v>
+        <v>18138</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>58981</v>
+        <v>59237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35430</v>
+        <v>35672</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>91456</v>
+        <v>91026</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27528</v>
+        <v>27519</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>77455</v>
+        <v>77869</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>67135</v>
+        <v>66192</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>113091</v>
+        <v>115460</v>
       </c>
     </row>
     <row r="23">
@@ -2624,40 +2624,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17498</v>
+        <v>17649</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29804</v>
+        <v>30197</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45194</v>
+        <v>44773</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>33562</v>
+        <v>32925</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36533</v>
+        <v>36751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>86712</v>
+        <v>87068</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>60092</v>
+        <v>60313</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>111261</v>
+        <v>112450</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>50085</v>
+        <v>49395</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>110224</v>
+        <v>110094</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>98542</v>
+        <v>98278</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>139467</v>
+        <v>141025</v>
       </c>
     </row>
     <row r="24">
@@ -2761,31 +2761,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>71419</v>
+        <v>70236</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>98040</v>
+        <v>99177</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>113839</v>
+        <v>114538</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>123966</v>
+        <v>122665</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>68867</v>
+        <v>71028</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>99308</v>
+        <v>97860</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>113839</v>
+        <v>114538</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>124546</v>
+        <v>125007</v>
       </c>
     </row>
     <row r="27">
@@ -2802,28 +2802,28 @@
         <v>3276</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>104935</v>
+        <v>104863</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>134569</v>
+        <v>134678</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>154813</v>
+        <v>157193</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>151111</v>
+        <v>150934</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>103201</v>
+        <v>106014</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>136024</v>
+        <v>135708</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>154813</v>
+        <v>157193</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>151070</v>
+        <v>152108</v>
       </c>
     </row>
     <row r="28">
@@ -2926,40 +2926,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>53668</v>
+        <v>54285</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>129210</v>
+        <v>129139</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>205880</v>
+        <v>208437</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>208464</v>
+        <v>206260</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>306854</v>
+        <v>308195</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>179730</v>
+        <v>180396</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>306861</v>
+        <v>307365</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>306261</v>
+        <v>307384</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>445257</v>
+        <v>447031</v>
       </c>
     </row>
     <row r="31">
@@ -2970,40 +2970,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>83352</v>
+        <v>82973</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>164724</v>
+        <v>165416</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>260113</v>
+        <v>261315</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>268559</v>
+        <v>261559</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>350249</v>
+        <v>349603</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>230118</v>
+        <v>232022</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>371272</v>
+        <v>373593</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>372988</v>
+        <v>373887</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>503684</v>
+        <v>504722</v>
       </c>
     </row>
     <row r="32">
